--- a/Data/ham_luong_giac.xlsx
+++ b/Data/ham_luong_giac.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">x</t>
   </si>
@@ -28,6 +28,15 @@
     <t xml:space="preserve">y</t>
   </si>
   <si>
+    <t xml:space="preserve">dy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bessel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steclinh</t>
+  </si>
+  <si>
     <t xml:space="preserve">20 giá trị</t>
   </si>
   <si>
@@ -44,6 +53,15 @@
   </si>
   <si>
     <t xml:space="preserve">Cx=11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stt=11 → index =stt-2=9→ 0-9 và 10-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stt=11→i=9→ 7-8,9,10-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stt=11→ index= stt-2=9 → 7-9 và  10-12</t>
   </si>
 </sst>
 </file>
@@ -141,10 +159,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -159,6 +177,15 @@
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -168,8 +195,12 @@
         <f aca="false">SIN(RADIANS(A2))</f>
         <v>0</v>
       </c>
+      <c r="C2" s="0" t="n">
+        <f aca="false">B3-B2</f>
+        <v>0.0871557427476582</v>
+      </c>
       <c r="D2" s="0" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -181,8 +212,12 @@
         <f aca="false">SIN(RADIANS(A3))</f>
         <v>0.0871557427476582</v>
       </c>
+      <c r="C3" s="0" t="n">
+        <f aca="false">B4-B3</f>
+        <v>0.0864924349192718</v>
+      </c>
       <c r="D3" s="0" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -194,8 +229,12 @@
         <f aca="false">SIN(RADIANS(A4))</f>
         <v>0.17364817766693</v>
       </c>
+      <c r="C4" s="0" t="n">
+        <f aca="false">B5-B4</f>
+        <v>0.085170867435591</v>
+      </c>
       <c r="D4" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -207,8 +246,12 @@
         <f aca="false">SIN(RADIANS(A5))</f>
         <v>0.258819045102521</v>
       </c>
+      <c r="C5" s="0" t="n">
+        <f aca="false">B6-B5</f>
+        <v>0.083201098223148</v>
+      </c>
       <c r="D5" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -220,8 +263,12 @@
         <f aca="false">SIN(RADIANS(A6))</f>
         <v>0.342020143325669</v>
       </c>
+      <c r="C6" s="0" t="n">
+        <f aca="false">B7-B6</f>
+        <v>0.08059811841503</v>
+      </c>
       <c r="D6" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -233,8 +280,12 @@
         <f aca="false">SIN(RADIANS(A7))</f>
         <v>0.422618261740699</v>
       </c>
+      <c r="C7" s="0" t="n">
+        <f aca="false">B8-B7</f>
+        <v>0.077381738259301</v>
+      </c>
       <c r="D7" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -246,6 +297,16 @@
         <f aca="false">SIN(RADIANS(A8))</f>
         <v>0.5</v>
       </c>
+      <c r="C8" s="0" t="n">
+        <f aca="false">B9-B8</f>
+        <v>0.0735764363510461</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
@@ -256,6 +317,13 @@
         <f aca="false">SIN(RADIANS(A9))</f>
         <v>0.573576436351046</v>
       </c>
+      <c r="C9" s="0" t="n">
+        <f aca="false">B10-B9</f>
+        <v>0.069211173335493</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
@@ -266,6 +334,10 @@
         <f aca="false">SIN(RADIANS(A10))</f>
         <v>0.642787609686539</v>
       </c>
+      <c r="C10" s="0" t="n">
+        <f aca="false">B11-B10</f>
+        <v>0.064319171500008</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
@@ -276,6 +348,10 @@
         <f aca="false">SIN(RADIANS(A11))</f>
         <v>0.707106781186547</v>
       </c>
+      <c r="C11" s="0" t="n">
+        <f aca="false">B12-B11</f>
+        <v>0.058937661932431</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
@@ -286,6 +362,10 @@
         <f aca="false">SIN(RADIANS(A12))</f>
         <v>0.766044443118978</v>
       </c>
+      <c r="C12" s="0" t="n">
+        <f aca="false">B13-B12</f>
+        <v>0.053107601170014</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
@@ -296,6 +376,10 @@
         <f aca="false">SIN(RADIANS(A13))</f>
         <v>0.819152044288992</v>
       </c>
+      <c r="C13" s="0" t="n">
+        <f aca="false">B14-B13</f>
+        <v>0.046873359495447</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
@@ -306,6 +390,10 @@
         <f aca="false">SIN(RADIANS(A14))</f>
         <v>0.866025403784439</v>
       </c>
+      <c r="C14" s="0" t="n">
+        <f aca="false">B15-B14</f>
+        <v>0.040282383252211</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
@@ -316,6 +404,10 @@
         <f aca="false">SIN(RADIANS(A15))</f>
         <v>0.90630778703665</v>
       </c>
+      <c r="C15" s="0" t="n">
+        <f aca="false">B16-B15</f>
+        <v>0.033384833749258</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
@@ -326,6 +418,10 @@
         <f aca="false">SIN(RADIANS(A16))</f>
         <v>0.939692620785908</v>
       </c>
+      <c r="C16" s="0" t="n">
+        <f aca="false">B17-B16</f>
+        <v>0.02623320550316</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
@@ -336,6 +432,10 @@
         <f aca="false">SIN(RADIANS(A17))</f>
         <v>0.965925826289068</v>
       </c>
+      <c r="C17" s="0" t="n">
+        <f aca="false">B18-B17</f>
+        <v>0.01888192672314</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
@@ -346,6 +446,10 @@
         <f aca="false">SIN(RADIANS(A18))</f>
         <v>0.984807753012208</v>
       </c>
+      <c r="C18" s="0" t="n">
+        <f aca="false">B19-B18</f>
+        <v>0.011386945079538</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
@@ -356,6 +460,10 @@
         <f aca="false">SIN(RADIANS(A19))</f>
         <v>0.996194698091746</v>
       </c>
+      <c r="C19" s="0" t="n">
+        <f aca="false">B20-B19</f>
+        <v>0.0038053019082539</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
@@ -365,6 +473,10 @@
       <c r="B20" s="0" t="n">
         <f aca="false">SIN(RADIANS(A20))</f>
         <v>1</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <f aca="false">B21-B20</f>
+        <v>-0.0038053019082539</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Data/ham_luong_giac.xlsx
+++ b/Data/ham_luong_giac.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">x</t>
   </si>
@@ -37,6 +37,9 @@
     <t xml:space="preserve">Steclinh</t>
   </si>
   <si>
+    <t xml:space="preserve">6 moc</t>
+  </si>
+  <si>
     <t xml:space="preserve">20 giá trị</t>
   </si>
   <si>
@@ -55,13 +58,16 @@
     <t xml:space="preserve">Cx=11</t>
   </si>
   <si>
-    <t xml:space="preserve">Stt=11 → index =stt-2=9→ 0-9 và 10-19</t>
+    <t xml:space="preserve">Stt=11→ index =stt-2=9→ 0-9 và 10-19</t>
   </si>
   <si>
     <t xml:space="preserve">stt=11→i=9→ 7-8,9,10-11</t>
   </si>
   <si>
     <t xml:space="preserve">Stt=11→ index= stt-2=9 → 7-9 và  10-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NT lui: Sst=15 → index= 13 →8</t>
   </si>
 </sst>
 </file>
@@ -159,10 +165,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -180,11 +186,14 @@
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -199,8 +208,12 @@
         <f aca="false">B3-B2</f>
         <v>0.0871557427476582</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>5</v>
+      <c r="D2" s="0" t="n">
+        <f aca="false">A2+0.5*5</f>
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -214,10 +227,14 @@
       </c>
       <c r="C3" s="0" t="n">
         <f aca="false">B4-B3</f>
-        <v>0.0864924349192718</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>6</v>
+        <v>0.0864924349192722</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <f aca="false">A3+0.5*5</f>
+        <v>7.5</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -231,10 +248,14 @@
       </c>
       <c r="C4" s="0" t="n">
         <f aca="false">B5-B4</f>
-        <v>0.085170867435591</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>7</v>
+        <v>0.0851708674355904</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <f aca="false">A4+0.5*5</f>
+        <v>12.5</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -250,8 +271,12 @@
         <f aca="false">B6-B5</f>
         <v>0.083201098223148</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>8</v>
+      <c r="D5" s="0" t="n">
+        <f aca="false">A5+0.5*5</f>
+        <v>17.5</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -265,10 +290,14 @@
       </c>
       <c r="C6" s="0" t="n">
         <f aca="false">B7-B6</f>
-        <v>0.08059811841503</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>9</v>
+        <v>0.0805981184150307</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <f aca="false">A6+0.5*5</f>
+        <v>22.5</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -282,10 +311,14 @@
       </c>
       <c r="C7" s="0" t="n">
         <f aca="false">B8-B7</f>
-        <v>0.077381738259301</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>10</v>
+        <v>0.0773817382593005</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <f aca="false">A7+0.5*5</f>
+        <v>27.5</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -301,11 +334,15 @@
         <f aca="false">B9-B8</f>
         <v>0.0735764363510461</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>11</v>
+      <c r="D8" s="0" t="n">
+        <f aca="false">A8+0.5*5</f>
+        <v>32.5</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -319,10 +356,14 @@
       </c>
       <c r="C9" s="0" t="n">
         <f aca="false">B10-B9</f>
-        <v>0.069211173335493</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>13</v>
+        <v>0.0692111733354932</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <f aca="false">A9+0.5*5</f>
+        <v>37.5</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -336,7 +377,11 @@
       </c>
       <c r="C10" s="0" t="n">
         <f aca="false">B11-B10</f>
-        <v>0.064319171500008</v>
+        <v>0.0643191715000082</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <f aca="false">A10+0.5*5</f>
+        <v>42.5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -350,7 +395,11 @@
       </c>
       <c r="C11" s="0" t="n">
         <f aca="false">B12-B11</f>
-        <v>0.058937661932431</v>
+        <v>0.0589376619324306</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <f aca="false">A11+0.5*5</f>
+        <v>47.5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -364,7 +413,11 @@
       </c>
       <c r="C12" s="0" t="n">
         <f aca="false">B13-B12</f>
-        <v>0.053107601170014</v>
+        <v>0.0531076011700138</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <f aca="false">A12+0.5*5</f>
+        <v>52.5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -378,7 +431,11 @@
       </c>
       <c r="C13" s="0" t="n">
         <f aca="false">B14-B13</f>
-        <v>0.046873359495447</v>
+        <v>0.0468733594954468</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <f aca="false">A13+0.5*5</f>
+        <v>57.5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -392,7 +449,14 @@
       </c>
       <c r="C14" s="0" t="n">
         <f aca="false">B15-B14</f>
-        <v>0.040282383252211</v>
+        <v>0.0402823832522113</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <f aca="false">A14+0.5*5</f>
+        <v>62.5</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -406,7 +470,11 @@
       </c>
       <c r="C15" s="0" t="n">
         <f aca="false">B16-B15</f>
-        <v>0.033384833749258</v>
+        <v>0.0333848337492584</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <f aca="false">A15+0.5*5</f>
+        <v>67.5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -422,6 +490,10 @@
         <f aca="false">B17-B16</f>
         <v>0.02623320550316</v>
       </c>
+      <c r="D16" s="0" t="n">
+        <f aca="false">A16+0.5*5</f>
+        <v>72.5</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
@@ -434,7 +506,11 @@
       </c>
       <c r="C17" s="0" t="n">
         <f aca="false">B18-B17</f>
-        <v>0.01888192672314</v>
+        <v>0.0188819267231397</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <f aca="false">A17+0.5*5</f>
+        <v>77.5</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -448,7 +524,11 @@
       </c>
       <c r="C18" s="0" t="n">
         <f aca="false">B19-B18</f>
-        <v>0.011386945079538</v>
+        <v>0.0113869450795375</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <f aca="false">A18+0.5*5</f>
+        <v>82.5</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -462,7 +542,11 @@
       </c>
       <c r="C19" s="0" t="n">
         <f aca="false">B20-B19</f>
-        <v>0.0038053019082539</v>
+        <v>0.00380530190825445</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <f aca="false">A19+0.5*5</f>
+        <v>87.5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -476,7 +560,11 @@
       </c>
       <c r="C20" s="0" t="n">
         <f aca="false">B21-B20</f>
-        <v>-0.0038053019082539</v>
+        <v>-0.00380530190825445</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <f aca="false">A20+0.5*5</f>
+        <v>92.5</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -487,6 +575,10 @@
       <c r="B21" s="0" t="n">
         <f aca="false">SIN(RADIANS(A21))</f>
         <v>0.996194698091746</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <f aca="false">A21+0.5*5</f>
+        <v>97.5</v>
       </c>
     </row>
   </sheetData>
